--- a/Electronics/v7.4/production/BOM.xlsx
+++ b/Electronics/v7.4/production/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\GitHub\open-ephys\FED3\Electronics\v7.4\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A16E0F-DE47-41C6-A4E0-9B4282F6BEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231CF8E9-F4D9-4E46-910B-9F8B43BCA178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C14BB60-4DCF-4356-9B2A-66B802743BE9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C14BB60-4DCF-4356-9B2A-66B802743BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -292,12 +292,6 @@
     <t>SMD CER 0402 1uF 25V ±10% X5R</t>
   </si>
   <si>
-    <t>OEPS030006</t>
-  </si>
-  <si>
-    <t>5975004407F</t>
-  </si>
-  <si>
     <t>Light emitting diode</t>
   </si>
   <si>
@@ -593,6 +587,12 @@
   </si>
   <si>
     <t>693071010811</t>
+  </si>
+  <si>
+    <t>OEPS030038</t>
+  </si>
+  <si>
+    <t>VFHR1116P-4C82A-TR</t>
   </si>
 </sst>
 </file>
@@ -637,16 +637,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,7 +983,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,27 +997,27 @@
     <col min="7" max="7" width="92.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1095,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
@@ -1118,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1141,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C7" s="1">
         <v>9</v>
@@ -1164,7 +1163,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1173,13 +1172,13 @@
         <v>36</v>
       </c>
       <c r="E8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" t="s">
         <v>81</v>
-      </c>
-      <c r="F8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1196,13 +1195,13 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1219,13 +1218,13 @@
         <v>31</v>
       </c>
       <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
         <v>86</v>
-      </c>
-      <c r="F10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1242,13 +1241,13 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
         <v>89</v>
-      </c>
-      <c r="F11" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1265,13 +1264,13 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" t="s">
         <v>92</v>
-      </c>
-      <c r="F12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1288,13 +1287,13 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" t="s">
         <v>95</v>
-      </c>
-      <c r="F13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1311,13 +1310,13 @@
         <v>16</v>
       </c>
       <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1325,7 +1324,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
@@ -1334,13 +1333,13 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1348,7 +1347,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -1357,13 +1356,13 @@
         <v>58</v>
       </c>
       <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" t="s">
         <v>102</v>
-      </c>
-      <c r="F16" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1380,13 +1379,13 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1394,7 +1393,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
@@ -1403,13 +1402,13 @@
         <v>62</v>
       </c>
       <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" t="s">
         <v>106</v>
-      </c>
-      <c r="F18" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1426,13 +1425,13 @@
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F19" t="s">
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1449,13 +1448,13 @@
         <v>48</v>
       </c>
       <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" t="s">
         <v>111</v>
-      </c>
-      <c r="F20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1472,13 +1471,13 @@
         <v>23</v>
       </c>
       <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" t="s">
         <v>114</v>
-      </c>
-      <c r="F21" t="s">
-        <v>115</v>
-      </c>
-      <c r="G21" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1495,13 +1494,13 @@
         <v>35</v>
       </c>
       <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" t="s">
         <v>117</v>
-      </c>
-      <c r="F22" t="s">
-        <v>118</v>
-      </c>
-      <c r="G22" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1509,7 +1508,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
@@ -1518,13 +1517,13 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" t="s">
         <v>120</v>
-      </c>
-      <c r="F23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1532,7 +1531,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
@@ -1541,13 +1540,13 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" t="s">
         <v>123</v>
-      </c>
-      <c r="F24" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1555,7 +1554,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -1564,13 +1563,13 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" t="s">
         <v>126</v>
-      </c>
-      <c r="F25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1578,7 +1577,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
@@ -1587,13 +1586,13 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" t="s">
         <v>129</v>
-      </c>
-      <c r="F26" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1610,13 +1609,13 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1633,13 +1632,13 @@
         <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F28" t="s">
         <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1656,13 +1655,13 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" t="s">
         <v>136</v>
-      </c>
-      <c r="F29" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1679,13 +1678,13 @@
         <v>42</v>
       </c>
       <c r="E30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" t="s">
         <v>139</v>
-      </c>
-      <c r="F30" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1702,13 +1701,13 @@
         <v>57</v>
       </c>
       <c r="E31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F31" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" t="s">
         <v>142</v>
-      </c>
-      <c r="F31" t="s">
-        <v>143</v>
-      </c>
-      <c r="G31" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1725,13 +1724,13 @@
         <v>27</v>
       </c>
       <c r="E32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" t="s">
         <v>145</v>
-      </c>
-      <c r="F32" t="s">
-        <v>146</v>
-      </c>
-      <c r="G32" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1748,13 +1747,13 @@
         <v>46</v>
       </c>
       <c r="E33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" t="s">
         <v>148</v>
-      </c>
-      <c r="F33" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1771,13 +1770,13 @@
         <v>29</v>
       </c>
       <c r="E34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" t="s">
         <v>151</v>
-      </c>
-      <c r="F34" t="s">
-        <v>152</v>
-      </c>
-      <c r="G34" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1794,13 +1793,13 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" t="s">
         <v>154</v>
-      </c>
-      <c r="F35" t="s">
-        <v>155</v>
-      </c>
-      <c r="G35" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1817,13 +1816,13 @@
         <v>33</v>
       </c>
       <c r="E36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1840,13 +1839,13 @@
         <v>44</v>
       </c>
       <c r="E37" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" t="s">
         <v>159</v>
-      </c>
-      <c r="F37" t="s">
-        <v>160</v>
-      </c>
-      <c r="G37" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
